--- a/LocalSellerData/product-detail.xlsx
+++ b/LocalSellerData/product-detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNU\Sem7\Project Part-2\FYP\fyp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNU\Sem7\Project Part-2\FYP\fyp\LocalSellerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5468A57-E63A-4142-B376-8CBABEBAF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8AB575-A96A-4989-8947-19B69AAB4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{8C35D77C-FE12-4875-98D0-F42CAEE5FF18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C35D77C-FE12-4875-98D0-F42CAEE5FF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>product_name</t>
   </si>
@@ -41,15 +41,9 @@
     <t>product_price</t>
   </si>
   <si>
-    <t>product_description</t>
-  </si>
-  <si>
     <t>Samsung S21 Ultra</t>
   </si>
   <si>
-    <t>Great High End Device</t>
-  </si>
-  <si>
     <t>Samsung S22 Ultra</t>
   </si>
   <si>
@@ -57,15 +51,6 @@
   </si>
   <si>
     <t>Samsung S10 Ultra</t>
-  </si>
-  <si>
-    <t>Best Mobile to Keep</t>
-  </si>
-  <si>
-    <t>Top Notch</t>
-  </si>
-  <si>
-    <t>Normall Device</t>
   </si>
 </sst>
 </file>
@@ -417,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BF66D-B856-4952-9423-602171CD3C65}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,59 +414,44 @@
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>250000</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>250000</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>250000</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>250000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
